--- a/Excel/镇魂街/drop.掉落表.xlsx
+++ b/Excel/镇魂街/drop.掉落表.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D0A1D-2A7D-44C2-B48E-F8B175603BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="掉落组" sheetId="26" r:id="rId2"/>
     <sheet name="掉落" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7995" uniqueCount="3143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7995" uniqueCount="3178">
   <si>
     <t>sheet名</t>
   </si>
@@ -9518,7 +9517,15 @@
     <t>红莲·缇娜</t>
   </si>
   <si>
-    <t>冰中级</t>
+    <t>雷中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -9526,26 +9533,158 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>风中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>雷中级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>土中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>土中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火中级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>土高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>冰高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>风高级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>雷高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷高级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武神躯材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人武灵材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通寄灵人材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9774,19 +9913,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10063,7 +10202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10175,7 +10314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D691"/>
   <sheetViews>
     <sheetView topLeftCell="A658" workbookViewId="0">
@@ -19872,11 +20011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2375" workbookViewId="0">
-      <selection activeCell="E2420" sqref="E2420"/>
+    <sheetView tabSelected="1" topLeftCell="A2398" workbookViewId="0">
+      <selection activeCell="F2414" sqref="F2414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -78559,7 +78698,7 @@
         <v>2</v>
       </c>
       <c r="E2257" s="4" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="F2257" s="3">
         <v>1</v>
@@ -78610,8 +78749,8 @@
       <c r="D2259" s="3">
         <v>2</v>
       </c>
-      <c r="E2259" s="3" t="s">
-        <v>3118</v>
+      <c r="E2259" s="4" t="s">
+        <v>3141</v>
       </c>
       <c r="F2259" s="3">
         <v>1</v>
@@ -78663,7 +78802,7 @@
         <v>2</v>
       </c>
       <c r="E2261" s="4" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="F2261" s="3">
         <v>1</v>
@@ -78714,8 +78853,8 @@
       <c r="D2263" s="3">
         <v>2</v>
       </c>
-      <c r="E2263" s="3" t="s">
-        <v>3121</v>
+      <c r="E2263" s="4" t="s">
+        <v>3143</v>
       </c>
       <c r="F2263" s="3">
         <v>1</v>
@@ -78818,8 +78957,8 @@
       <c r="D2267" s="3">
         <v>2</v>
       </c>
-      <c r="E2267" s="3" t="s">
-        <v>3123</v>
+      <c r="E2267" s="4" t="s">
+        <v>3144</v>
       </c>
       <c r="F2267" s="3">
         <v>1</v>
@@ -78870,8 +79009,8 @@
       <c r="D2269" s="3">
         <v>2</v>
       </c>
-      <c r="E2269" s="3" t="s">
-        <v>3118</v>
+      <c r="E2269" s="4" t="s">
+        <v>3145</v>
       </c>
       <c r="F2269" s="3">
         <v>1</v>
@@ -78923,7 +79062,7 @@
         <v>2</v>
       </c>
       <c r="E2271" s="4" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
       <c r="F2271" s="3">
         <v>1</v>
@@ -78975,7 +79114,7 @@
         <v>2</v>
       </c>
       <c r="E2273" s="4" t="s">
-        <v>3139</v>
+        <v>3147</v>
       </c>
       <c r="F2273" s="3">
         <v>1</v>
@@ -79079,7 +79218,7 @@
         <v>2</v>
       </c>
       <c r="E2277" s="4" t="s">
-        <v>3137</v>
+        <v>3148</v>
       </c>
       <c r="F2277" s="3">
         <v>1</v>
@@ -79130,8 +79269,8 @@
       <c r="D2279" s="3">
         <v>2</v>
       </c>
-      <c r="E2279" s="3" t="s">
-        <v>3118</v>
+      <c r="E2279" s="4" t="s">
+        <v>3149</v>
       </c>
       <c r="F2279" s="3">
         <v>1</v>
@@ -79183,7 +79322,7 @@
         <v>2</v>
       </c>
       <c r="E2281" s="4" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="F2281" s="3">
         <v>1</v>
@@ -79234,8 +79373,8 @@
       <c r="D2283" s="3">
         <v>2</v>
       </c>
-      <c r="E2283" s="3" t="s">
-        <v>3121</v>
+      <c r="E2283" s="4" t="s">
+        <v>3150</v>
       </c>
       <c r="F2283" s="3">
         <v>1</v>
@@ -79339,7 +79478,7 @@
         <v>2</v>
       </c>
       <c r="E2287" s="4" t="s">
-        <v>3137</v>
+        <v>3148</v>
       </c>
       <c r="F2287" s="3">
         <v>1</v>
@@ -79390,8 +79529,8 @@
       <c r="D2289" s="3">
         <v>2</v>
       </c>
-      <c r="E2289" s="3" t="s">
-        <v>3118</v>
+      <c r="E2289" s="4" t="s">
+        <v>3151</v>
       </c>
       <c r="F2289" s="3">
         <v>1</v>
@@ -79443,7 +79582,7 @@
         <v>2</v>
       </c>
       <c r="E2291" s="4" t="s">
-        <v>3138</v>
+        <v>3152</v>
       </c>
       <c r="F2291" s="3">
         <v>1</v>
@@ -79494,8 +79633,8 @@
       <c r="D2293" s="3">
         <v>2</v>
       </c>
-      <c r="E2293" s="3" t="s">
-        <v>3121</v>
+      <c r="E2293" s="4" t="s">
+        <v>3153</v>
       </c>
       <c r="F2293" s="3">
         <v>1</v>
@@ -79599,7 +79738,7 @@
         <v>2</v>
       </c>
       <c r="E2297" s="4" t="s">
-        <v>3137</v>
+        <v>3154</v>
       </c>
       <c r="F2297" s="3">
         <v>1</v>
@@ -79650,8 +79789,8 @@
       <c r="D2299" s="3">
         <v>2</v>
       </c>
-      <c r="E2299" s="3" t="s">
-        <v>3118</v>
+      <c r="E2299" s="4" t="s">
+        <v>3155</v>
       </c>
       <c r="F2299" s="3">
         <v>1</v>
@@ -79703,7 +79842,7 @@
         <v>2</v>
       </c>
       <c r="E2301" s="4" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
       <c r="F2301" s="3">
         <v>1</v>
@@ -79754,8 +79893,8 @@
       <c r="D2303" s="3">
         <v>2</v>
       </c>
-      <c r="E2303" s="3" t="s">
-        <v>3121</v>
+      <c r="E2303" s="4" t="s">
+        <v>3156</v>
       </c>
       <c r="F2303" s="3">
         <v>1</v>
@@ -79859,7 +79998,7 @@
         <v>2</v>
       </c>
       <c r="E2307" s="4" t="s">
-        <v>3137</v>
+        <v>3157</v>
       </c>
       <c r="F2307" s="3">
         <v>2</v>
@@ -79910,8 +80049,8 @@
       <c r="D2309" s="3">
         <v>2</v>
       </c>
-      <c r="E2309" s="3" t="s">
-        <v>3118</v>
+      <c r="E2309" s="4" t="s">
+        <v>3141</v>
       </c>
       <c r="F2309" s="3">
         <v>2</v>
@@ -79963,7 +80102,7 @@
         <v>2</v>
       </c>
       <c r="E2311" s="4" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="F2311" s="3">
         <v>2</v>
@@ -80014,8 +80153,8 @@
       <c r="D2313" s="3">
         <v>2</v>
       </c>
-      <c r="E2313" s="3" t="s">
-        <v>3121</v>
+      <c r="E2313" s="4" t="s">
+        <v>3153</v>
       </c>
       <c r="F2313" s="3">
         <v>2</v>
@@ -80067,7 +80206,7 @@
         <v>2</v>
       </c>
       <c r="E2315" s="4" t="s">
-        <v>3142</v>
+        <v>3158</v>
       </c>
       <c r="F2315" s="3">
         <v>1</v>
@@ -80119,7 +80258,7 @@
         <v>2</v>
       </c>
       <c r="E2317" s="4" t="s">
-        <v>3141</v>
+        <v>3159</v>
       </c>
       <c r="F2317" s="3">
         <v>1</v>
@@ -80171,7 +80310,7 @@
         <v>2</v>
       </c>
       <c r="E2319" s="4" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="F2319" s="3">
         <v>1</v>
@@ -80223,7 +80362,7 @@
         <v>2</v>
       </c>
       <c r="E2321" s="4" t="s">
-        <v>3140</v>
+        <v>3160</v>
       </c>
       <c r="F2321" s="3">
         <v>1</v>
@@ -80275,7 +80414,7 @@
         <v>2</v>
       </c>
       <c r="E2323" s="4" t="s">
-        <v>3140</v>
+        <v>3161</v>
       </c>
       <c r="F2323" s="3">
         <v>1</v>
@@ -80326,8 +80465,8 @@
       <c r="D2325" s="3">
         <v>2</v>
       </c>
-      <c r="E2325" s="3" t="s">
-        <v>3128</v>
+      <c r="E2325" s="4" t="s">
+        <v>3162</v>
       </c>
       <c r="F2325" s="3">
         <v>1</v>
@@ -80379,7 +80518,7 @@
         <v>2</v>
       </c>
       <c r="E2327" s="4" t="s">
-        <v>3141</v>
+        <v>3163</v>
       </c>
       <c r="F2327" s="3">
         <v>1</v>
@@ -80483,7 +80622,7 @@
         <v>2</v>
       </c>
       <c r="E2331" s="4" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="F2331" s="3">
         <v>1</v>
@@ -80586,8 +80725,8 @@
       <c r="D2335" s="3">
         <v>2</v>
       </c>
-      <c r="E2335" s="3" t="s">
-        <v>3128</v>
+      <c r="E2335" s="4" t="s">
+        <v>3164</v>
       </c>
       <c r="F2335" s="3">
         <v>1</v>
@@ -80612,8 +80751,8 @@
       <c r="D2336" s="3">
         <v>3</v>
       </c>
-      <c r="E2336" s="3" t="s">
-        <v>3134</v>
+      <c r="E2336" s="4" t="s">
+        <v>3172</v>
       </c>
       <c r="F2336" s="3">
         <v>1</v>
@@ -80665,7 +80804,7 @@
         <v>2</v>
       </c>
       <c r="E2338" s="4" t="s">
-        <v>3141</v>
+        <v>3165</v>
       </c>
       <c r="F2338" s="3">
         <v>1</v>
@@ -80690,8 +80829,8 @@
       <c r="D2339" s="3">
         <v>3</v>
       </c>
-      <c r="E2339" s="3" t="s">
-        <v>3129</v>
+      <c r="E2339" s="4" t="s">
+        <v>3177</v>
       </c>
       <c r="F2339" s="3">
         <v>1</v>
@@ -80743,7 +80882,7 @@
         <v>2</v>
       </c>
       <c r="E2341" s="4" t="s">
-        <v>3141</v>
+        <v>3166</v>
       </c>
       <c r="F2341" s="3">
         <v>1</v>
@@ -80768,8 +80907,8 @@
       <c r="D2342" s="3">
         <v>3</v>
       </c>
-      <c r="E2342" s="3" t="s">
-        <v>3131</v>
+      <c r="E2342" s="4" t="s">
+        <v>3176</v>
       </c>
       <c r="F2342" s="3">
         <v>1</v>
@@ -80821,7 +80960,7 @@
         <v>2</v>
       </c>
       <c r="E2344" s="4" t="s">
-        <v>3140</v>
+        <v>3167</v>
       </c>
       <c r="F2344" s="3">
         <v>1</v>
@@ -80846,8 +80985,8 @@
       <c r="D2345" s="3">
         <v>3</v>
       </c>
-      <c r="E2345" s="3" t="s">
-        <v>3132</v>
+      <c r="E2345" s="4" t="s">
+        <v>3174</v>
       </c>
       <c r="F2345" s="3">
         <v>1</v>
@@ -80924,8 +81063,8 @@
       <c r="D2348" s="3">
         <v>3</v>
       </c>
-      <c r="E2348" s="3" t="s">
-        <v>3133</v>
+      <c r="E2348" s="4" t="s">
+        <v>3175</v>
       </c>
       <c r="F2348" s="3">
         <v>1</v>
@@ -80976,8 +81115,8 @@
       <c r="D2350" s="3">
         <v>2</v>
       </c>
-      <c r="E2350" s="3" t="s">
-        <v>3128</v>
+      <c r="E2350" s="4" t="s">
+        <v>3168</v>
       </c>
       <c r="F2350" s="3">
         <v>1</v>
@@ -81003,7 +81142,7 @@
         <v>3</v>
       </c>
       <c r="E2351" s="4" t="s">
-        <v>3141</v>
+        <v>3169</v>
       </c>
       <c r="F2351" s="3">
         <v>1</v>
@@ -81028,8 +81167,8 @@
       <c r="D2352" s="3">
         <v>4</v>
       </c>
-      <c r="E2352" s="3" t="s">
-        <v>3126</v>
+      <c r="E2352" s="4" t="s">
+        <v>3170</v>
       </c>
       <c r="F2352" s="3">
         <v>1</v>
@@ -81055,7 +81194,7 @@
         <v>5</v>
       </c>
       <c r="E2353" s="4" t="s">
-        <v>3140</v>
+        <v>3171</v>
       </c>
       <c r="F2353" s="3">
         <v>1</v>
@@ -81106,8 +81245,8 @@
       <c r="D2355" s="3">
         <v>7</v>
       </c>
-      <c r="E2355" s="3" t="s">
-        <v>3130</v>
+      <c r="E2355" s="4" t="s">
+        <v>3173</v>
       </c>
       <c r="F2355" s="3">
         <v>1</v>
@@ -81158,8 +81297,8 @@
       <c r="D2357" s="3">
         <v>2</v>
       </c>
-      <c r="E2357" s="3" t="s">
-        <v>3128</v>
+      <c r="E2357" s="4" t="s">
+        <v>3164</v>
       </c>
       <c r="F2357" s="3">
         <v>1</v>
@@ -81184,8 +81323,8 @@
       <c r="D2358" s="3">
         <v>3</v>
       </c>
-      <c r="E2358" s="3" t="s">
-        <v>3134</v>
+      <c r="E2358" s="4" t="s">
+        <v>3172</v>
       </c>
       <c r="F2358" s="3">
         <v>1</v>
@@ -81237,7 +81376,7 @@
         <v>2</v>
       </c>
       <c r="E2360" s="4" t="s">
-        <v>3141</v>
+        <v>3165</v>
       </c>
       <c r="F2360" s="3">
         <v>1</v>
@@ -81262,8 +81401,8 @@
       <c r="D2361" s="3">
         <v>3</v>
       </c>
-      <c r="E2361" s="3" t="s">
-        <v>3129</v>
+      <c r="E2361" s="4" t="s">
+        <v>3177</v>
       </c>
       <c r="F2361" s="3">
         <v>1</v>
@@ -81314,8 +81453,8 @@
       <c r="D2363" s="3">
         <v>2</v>
       </c>
-      <c r="E2363" s="3" t="s">
-        <v>3126</v>
+      <c r="E2363" s="4" t="s">
+        <v>3166</v>
       </c>
       <c r="F2363" s="3">
         <v>1</v>
@@ -81340,8 +81479,8 @@
       <c r="D2364" s="3">
         <v>3</v>
       </c>
-      <c r="E2364" s="3" t="s">
-        <v>3131</v>
+      <c r="E2364" s="4" t="s">
+        <v>3176</v>
       </c>
       <c r="F2364" s="3">
         <v>1</v>
@@ -81393,7 +81532,7 @@
         <v>2</v>
       </c>
       <c r="E2366" s="4" t="s">
-        <v>3140</v>
+        <v>3167</v>
       </c>
       <c r="F2366" s="3">
         <v>1</v>
@@ -81418,8 +81557,8 @@
       <c r="D2367" s="3">
         <v>3</v>
       </c>
-      <c r="E2367" s="3" t="s">
-        <v>3132</v>
+      <c r="E2367" s="4" t="s">
+        <v>3174</v>
       </c>
       <c r="F2367" s="3">
         <v>1</v>
@@ -81496,8 +81635,8 @@
       <c r="D2370" s="3">
         <v>3</v>
       </c>
-      <c r="E2370" s="3" t="s">
-        <v>3133</v>
+      <c r="E2370" s="4" t="s">
+        <v>3175</v>
       </c>
       <c r="F2370" s="3">
         <v>1</v>
@@ -81548,8 +81687,8 @@
       <c r="D2372" s="3">
         <v>2</v>
       </c>
-      <c r="E2372" s="3" t="s">
-        <v>3128</v>
+      <c r="E2372" s="4" t="s">
+        <v>3168</v>
       </c>
       <c r="F2372" s="3">
         <v>1</v>
@@ -81575,7 +81714,7 @@
         <v>3</v>
       </c>
       <c r="E2373" s="4" t="s">
-        <v>3141</v>
+        <v>3169</v>
       </c>
       <c r="F2373" s="3">
         <v>1</v>
@@ -81600,8 +81739,8 @@
       <c r="D2374" s="3">
         <v>4</v>
       </c>
-      <c r="E2374" s="3" t="s">
-        <v>3126</v>
+      <c r="E2374" s="4" t="s">
+        <v>3170</v>
       </c>
       <c r="F2374" s="3">
         <v>1</v>
@@ -81627,7 +81766,7 @@
         <v>5</v>
       </c>
       <c r="E2375" s="4" t="s">
-        <v>3140</v>
+        <v>3171</v>
       </c>
       <c r="F2375" s="3">
         <v>1</v>
@@ -81678,8 +81817,8 @@
       <c r="D2377" s="3">
         <v>7</v>
       </c>
-      <c r="E2377" s="3" t="s">
-        <v>3130</v>
+      <c r="E2377" s="4" t="s">
+        <v>3173</v>
       </c>
       <c r="F2377" s="3">
         <v>1</v>
@@ -81730,8 +81869,8 @@
       <c r="D2379" s="3">
         <v>2</v>
       </c>
-      <c r="E2379" s="3" t="s">
-        <v>3128</v>
+      <c r="E2379" s="4" t="s">
+        <v>3164</v>
       </c>
       <c r="F2379" s="3">
         <v>1</v>
@@ -81756,8 +81895,8 @@
       <c r="D2380" s="3">
         <v>3</v>
       </c>
-      <c r="E2380" s="3" t="s">
-        <v>3134</v>
+      <c r="E2380" s="4" t="s">
+        <v>3172</v>
       </c>
       <c r="F2380" s="3">
         <v>1</v>
@@ -81809,7 +81948,7 @@
         <v>2</v>
       </c>
       <c r="E2382" s="4" t="s">
-        <v>3141</v>
+        <v>3165</v>
       </c>
       <c r="F2382" s="3">
         <v>1</v>
@@ -81834,8 +81973,8 @@
       <c r="D2383" s="3">
         <v>3</v>
       </c>
-      <c r="E2383" s="3" t="s">
-        <v>3129</v>
+      <c r="E2383" s="4" t="s">
+        <v>3177</v>
       </c>
       <c r="F2383" s="3">
         <v>1</v>
@@ -81886,8 +82025,8 @@
       <c r="D2385" s="3">
         <v>2</v>
       </c>
-      <c r="E2385" s="3" t="s">
-        <v>3126</v>
+      <c r="E2385" s="4" t="s">
+        <v>3166</v>
       </c>
       <c r="F2385" s="3">
         <v>1</v>
@@ -81912,8 +82051,8 @@
       <c r="D2386" s="3">
         <v>3</v>
       </c>
-      <c r="E2386" s="3" t="s">
-        <v>3131</v>
+      <c r="E2386" s="4" t="s">
+        <v>3176</v>
       </c>
       <c r="F2386" s="3">
         <v>1</v>
@@ -81965,7 +82104,7 @@
         <v>2</v>
       </c>
       <c r="E2388" s="4" t="s">
-        <v>3140</v>
+        <v>3167</v>
       </c>
       <c r="F2388" s="3">
         <v>1</v>
@@ -81990,8 +82129,8 @@
       <c r="D2389" s="3">
         <v>3</v>
       </c>
-      <c r="E2389" s="3" t="s">
-        <v>3132</v>
+      <c r="E2389" s="4" t="s">
+        <v>3174</v>
       </c>
       <c r="F2389" s="3">
         <v>1</v>
@@ -82068,8 +82207,8 @@
       <c r="D2392" s="3">
         <v>3</v>
       </c>
-      <c r="E2392" s="3" t="s">
-        <v>3133</v>
+      <c r="E2392" s="4" t="s">
+        <v>3175</v>
       </c>
       <c r="F2392" s="3">
         <v>1</v>
@@ -82120,8 +82259,8 @@
       <c r="D2394" s="3">
         <v>2</v>
       </c>
-      <c r="E2394" s="3" t="s">
-        <v>3128</v>
+      <c r="E2394" s="4" t="s">
+        <v>3168</v>
       </c>
       <c r="F2394" s="3">
         <v>1</v>
@@ -82147,7 +82286,7 @@
         <v>3</v>
       </c>
       <c r="E2395" s="4" t="s">
-        <v>3141</v>
+        <v>3169</v>
       </c>
       <c r="F2395" s="3">
         <v>1</v>
@@ -82172,8 +82311,8 @@
       <c r="D2396" s="3">
         <v>4</v>
       </c>
-      <c r="E2396" s="3" t="s">
-        <v>3126</v>
+      <c r="E2396" s="4" t="s">
+        <v>3170</v>
       </c>
       <c r="F2396" s="3">
         <v>1</v>
@@ -82199,7 +82338,7 @@
         <v>5</v>
       </c>
       <c r="E2397" s="4" t="s">
-        <v>3140</v>
+        <v>3171</v>
       </c>
       <c r="F2397" s="3">
         <v>1</v>
@@ -82250,8 +82389,8 @@
       <c r="D2399" s="3">
         <v>7</v>
       </c>
-      <c r="E2399" s="3" t="s">
-        <v>3130</v>
+      <c r="E2399" s="4" t="s">
+        <v>3173</v>
       </c>
       <c r="F2399" s="3">
         <v>1</v>
@@ -82302,8 +82441,8 @@
       <c r="D2401" s="3">
         <v>2</v>
       </c>
-      <c r="E2401" s="3" t="s">
-        <v>3128</v>
+      <c r="E2401" s="4" t="s">
+        <v>3164</v>
       </c>
       <c r="F2401" s="3">
         <v>1</v>
@@ -82328,8 +82467,8 @@
       <c r="D2402" s="3">
         <v>3</v>
       </c>
-      <c r="E2402" s="3" t="s">
-        <v>3134</v>
+      <c r="E2402" s="4" t="s">
+        <v>3172</v>
       </c>
       <c r="F2402" s="3">
         <v>1</v>
@@ -82381,7 +82520,7 @@
         <v>2</v>
       </c>
       <c r="E2404" s="4" t="s">
-        <v>3141</v>
+        <v>3165</v>
       </c>
       <c r="F2404" s="3">
         <v>1</v>
@@ -82406,8 +82545,8 @@
       <c r="D2405" s="3">
         <v>3</v>
       </c>
-      <c r="E2405" s="3" t="s">
-        <v>3129</v>
+      <c r="E2405" s="4" t="s">
+        <v>3177</v>
       </c>
       <c r="F2405" s="3">
         <v>1</v>
@@ -82458,8 +82597,8 @@
       <c r="D2407" s="3">
         <v>2</v>
       </c>
-      <c r="E2407" s="3" t="s">
-        <v>3126</v>
+      <c r="E2407" s="4" t="s">
+        <v>3166</v>
       </c>
       <c r="F2407" s="3">
         <v>1</v>
@@ -82484,8 +82623,8 @@
       <c r="D2408" s="3">
         <v>3</v>
       </c>
-      <c r="E2408" s="3" t="s">
-        <v>3131</v>
+      <c r="E2408" s="4" t="s">
+        <v>3176</v>
       </c>
       <c r="F2408" s="3">
         <v>1</v>
@@ -82537,7 +82676,7 @@
         <v>2</v>
       </c>
       <c r="E2410" s="4" t="s">
-        <v>3140</v>
+        <v>3167</v>
       </c>
       <c r="F2410" s="3">
         <v>1</v>
@@ -82562,8 +82701,8 @@
       <c r="D2411" s="3">
         <v>3</v>
       </c>
-      <c r="E2411" s="3" t="s">
-        <v>3132</v>
+      <c r="E2411" s="4" t="s">
+        <v>3174</v>
       </c>
       <c r="F2411" s="3">
         <v>1</v>
@@ -82640,8 +82779,8 @@
       <c r="D2414" s="3">
         <v>3</v>
       </c>
-      <c r="E2414" s="3" t="s">
-        <v>3133</v>
+      <c r="E2414" s="4" t="s">
+        <v>3175</v>
       </c>
       <c r="F2414" s="3">
         <v>1</v>
@@ -82692,8 +82831,8 @@
       <c r="D2416" s="3">
         <v>2</v>
       </c>
-      <c r="E2416" s="3" t="s">
-        <v>3128</v>
+      <c r="E2416" s="4" t="s">
+        <v>3168</v>
       </c>
       <c r="F2416" s="3">
         <v>1</v>
@@ -82719,7 +82858,7 @@
         <v>3</v>
       </c>
       <c r="E2417" s="4" t="s">
-        <v>3141</v>
+        <v>3169</v>
       </c>
       <c r="F2417" s="3">
         <v>1</v>
@@ -82744,8 +82883,8 @@
       <c r="D2418" s="3">
         <v>4</v>
       </c>
-      <c r="E2418" s="3" t="s">
-        <v>3126</v>
+      <c r="E2418" s="4" t="s">
+        <v>3170</v>
       </c>
       <c r="F2418" s="3">
         <v>1</v>
@@ -82771,7 +82910,7 @@
         <v>5</v>
       </c>
       <c r="E2419" s="4" t="s">
-        <v>3140</v>
+        <v>3171</v>
       </c>
       <c r="F2419" s="3">
         <v>1</v>
@@ -82822,8 +82961,8 @@
       <c r="D2421" s="3">
         <v>7</v>
       </c>
-      <c r="E2421" s="3" t="s">
-        <v>3130</v>
+      <c r="E2421" s="4" t="s">
+        <v>3173</v>
       </c>
       <c r="F2421" s="3">
         <v>1</v>

--- a/Excel/镇魂街/drop.掉落表.xlsx
+++ b/Excel/镇魂街/drop.掉落表.xlsx
@@ -44221,7 +44221,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44405,7 +44405,7 @@
         <v>1375</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>0</v>

--- a/Excel/镇魂街/drop.掉落表.xlsx
+++ b/Excel/镇魂街/drop.掉落表.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1795">
   <si>
     <t>sheet名</t>
   </si>
@@ -5118,6 +5118,761 @@
   </si>
   <si>
     <t>版署寄灵人300次保底</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞一:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞二:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞二:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞三:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞三:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞四:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞四:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞五:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞六:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞七:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞八:通用掉落</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落</t>
+  </si>
+  <si>
+    <t>地煞九:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡一:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡一:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡二:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡二:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡三:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡四:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡五:通用掉落</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落</t>
+  </si>
+  <si>
+    <t>天罡六:通用掉落</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落</t>
+  </si>
+  <si>
+    <t>星耀:通用掉落</t>
+  </si>
+  <si>
+    <t>中级神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一:神器掉落_中级神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一:神器掉落_中级神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一:通用掉落_初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞一:通用掉落_金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞二:神器掉落_中级神器2配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞二:神器掉落_中级神器2配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞二:通用掉落_初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞二:通用掉落_金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞三:神器掉落_中级神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞三:神器掉落_中级神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞三:通用掉落_初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞三:通用掉落_金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞四:神器掉落_中级神器2配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞四:神器掉落_中级神器2配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞四:通用掉落_初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞四:通用掉落_金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞五:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞五:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞五:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞六:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞六:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞六:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞七:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞七:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞七:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞八:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞八:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞八:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞九:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞九:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞九:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>地煞九:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>地煞五:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>地煞六:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>地煞七:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>地煞八:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>天罡一:神器掉落_中级神器1配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡一:神器掉落_中级神器1配件2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡一:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡一:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡一:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡二:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡二:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡二:神器掉落_中级神器2配件1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡二:神器掉落_中级神器2配件2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡二:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡三:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡三:金币</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡三:初级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>天罡三:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>天罡四:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>天罡四:金币</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>天罡五:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>天罡五:金币</t>
+  </si>
+  <si>
+    <t>天罡四:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡四:高级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡五:中级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡五:高级强化石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>天罡六:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>天罡六:中级强化石</t>
+  </si>
+  <si>
+    <t>天罡六:高级强化石</t>
+  </si>
+  <si>
+    <t>天罡六:金币</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器1配件1</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器1配件2</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器1配件3</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器1配件4</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器1配件5</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器1配件6</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器2配件1</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器2配件2</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器2配件3</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器2配件4</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器2配件5</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器2配件6</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器3配件1</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器3配件2</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器3配件3</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器3配件4</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器3配件5</t>
+  </si>
+  <si>
+    <t>星耀:神器掉落_高级神器3配件6</t>
+  </si>
+  <si>
+    <t>星耀:中级强化石</t>
+  </si>
+  <si>
+    <t>星耀:高级强化石</t>
+  </si>
+  <si>
+    <t>星耀:金币</t>
+  </si>
+  <si>
+    <t>世界BOSS专属武器</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -5760,10 +6515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:L424"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77:C91"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="G420" sqref="G420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5771,7 +6526,8 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -10941,7 +11697,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A369" s="4">
         <v>6206</v>
       </c>
@@ -10955,7 +11711,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A370" s="4">
         <v>6207</v>
       </c>
@@ -10969,7 +11725,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A371" s="4">
         <v>6208</v>
       </c>
@@ -10983,7 +11739,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A372" s="4">
         <v>6209</v>
       </c>
@@ -10997,7 +11753,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A373" s="4">
         <v>6210</v>
       </c>
@@ -11011,7 +11767,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A374" s="4">
         <v>6211</v>
       </c>
@@ -11025,7 +11781,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A375" s="4">
         <v>6212</v>
       </c>
@@ -11039,7 +11795,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A376" s="4">
         <v>6213</v>
       </c>
@@ -11053,7 +11809,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="4">
         <v>6214</v>
       </c>
@@ -11067,7 +11823,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="4">
         <v>6215</v>
       </c>
@@ -11080,8 +11836,9 @@
       <c r="D378" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L378" s="10"/>
+    </row>
+    <row r="379" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="4">
         <v>6216</v>
       </c>
@@ -11094,8 +11851,9 @@
       <c r="D379" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L379" s="10"/>
+    </row>
+    <row r="380" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="4">
         <v>6217</v>
       </c>
@@ -11108,8 +11866,9 @@
       <c r="D380" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L380" s="10"/>
+    </row>
+    <row r="381" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="4">
         <v>6218</v>
       </c>
@@ -11123,7 +11882,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="4">
         <v>6219</v>
       </c>
@@ -11137,7 +11896,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="4">
         <v>6220</v>
       </c>
@@ -11151,7 +11910,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="4">
         <v>6221</v>
       </c>
@@ -11260,6 +12019,468 @@
         <v>370</v>
       </c>
       <c r="D391" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A392" s="4">
+        <v>7001</v>
+      </c>
+      <c r="B392" s="4">
+        <v>3</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D392" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A393" s="4">
+        <v>7002</v>
+      </c>
+      <c r="B393" s="4">
+        <v>3</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D393" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A394" s="4">
+        <v>7003</v>
+      </c>
+      <c r="B394" s="4">
+        <v>3</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D394" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A395" s="4">
+        <v>7004</v>
+      </c>
+      <c r="B395" s="4">
+        <v>3</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D395" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A396" s="4">
+        <v>7005</v>
+      </c>
+      <c r="B396" s="4">
+        <v>3</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D396" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A397" s="4">
+        <v>7006</v>
+      </c>
+      <c r="B397" s="4">
+        <v>3</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D397" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A398" s="4">
+        <v>7007</v>
+      </c>
+      <c r="B398" s="4">
+        <v>3</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D398" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A399" s="4">
+        <v>7008</v>
+      </c>
+      <c r="B399" s="4">
+        <v>3</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D399" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A400" s="4">
+        <v>7009</v>
+      </c>
+      <c r="B400" s="4">
+        <v>3</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D400" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A401" s="4">
+        <v>7010</v>
+      </c>
+      <c r="B401" s="4">
+        <v>3</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D401" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A402" s="4">
+        <v>7011</v>
+      </c>
+      <c r="B402" s="4">
+        <v>3</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D402" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A403" s="4">
+        <v>7012</v>
+      </c>
+      <c r="B403" s="4">
+        <v>3</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D403" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A404" s="4">
+        <v>7013</v>
+      </c>
+      <c r="B404" s="4">
+        <v>3</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D404" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A405" s="4">
+        <v>7014</v>
+      </c>
+      <c r="B405" s="4">
+        <v>3</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D405" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A406" s="4">
+        <v>7015</v>
+      </c>
+      <c r="B406" s="4">
+        <v>3</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D406" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A407" s="4">
+        <v>7016</v>
+      </c>
+      <c r="B407" s="4">
+        <v>3</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D407" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A408" s="4">
+        <v>7017</v>
+      </c>
+      <c r="B408" s="4">
+        <v>3</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D408" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A409" s="4">
+        <v>7018</v>
+      </c>
+      <c r="B409" s="4">
+        <v>3</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D409" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A410" s="4">
+        <v>7019</v>
+      </c>
+      <c r="B410" s="4">
+        <v>3</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D410" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A411" s="4">
+        <v>7020</v>
+      </c>
+      <c r="B411" s="4">
+        <v>3</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D411" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A412" s="4">
+        <v>7021</v>
+      </c>
+      <c r="B412" s="4">
+        <v>3</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D412" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A413" s="4">
+        <v>7022</v>
+      </c>
+      <c r="B413" s="4">
+        <v>3</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D413" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A414" s="4">
+        <v>7023</v>
+      </c>
+      <c r="B414" s="4">
+        <v>3</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D414" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A415" s="4">
+        <v>7024</v>
+      </c>
+      <c r="B415" s="4">
+        <v>3</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D415" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A416" s="4">
+        <v>7025</v>
+      </c>
+      <c r="B416" s="4">
+        <v>3</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D416" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A417" s="4">
+        <v>7026</v>
+      </c>
+      <c r="B417" s="4">
+        <v>3</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D417" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A418" s="4">
+        <v>7027</v>
+      </c>
+      <c r="B418" s="4">
+        <v>3</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D418" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A419" s="4">
+        <v>7028</v>
+      </c>
+      <c r="B419" s="4">
+        <v>3</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D419" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A420" s="4">
+        <v>7029</v>
+      </c>
+      <c r="B420" s="4">
+        <v>3</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D420" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A421" s="4">
+        <v>7030</v>
+      </c>
+      <c r="B421" s="4">
+        <v>3</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D421" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A422" s="4">
+        <v>7031</v>
+      </c>
+      <c r="B422" s="4">
+        <v>3</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D422" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A423" s="4">
+        <v>7032</v>
+      </c>
+      <c r="B423" s="4">
+        <v>3</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D423" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A424" s="4">
+        <v>7033</v>
+      </c>
+      <c r="B424" s="4">
+        <v>3</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D424" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -11273,10 +12494,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1102"/>
+  <dimension ref="A1:P1338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="A1295" sqref="A1295:A1338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46298,6 +47519,6378 @@
       </c>
       <c r="M1102" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1103" s="4">
+        <v>1102</v>
+      </c>
+      <c r="B1103" s="4">
+        <v>7001</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E1103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1103" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1103" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1103" s="4"/>
+    </row>
+    <row r="1104" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1104" s="4">
+        <v>1103</v>
+      </c>
+      <c r="B1104" s="4">
+        <v>7001</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E1104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1104" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1104" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1104" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1104" s="4"/>
+    </row>
+    <row r="1105" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1105" s="4">
+        <v>1104</v>
+      </c>
+      <c r="B1105" s="4">
+        <v>7002</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1105" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1105" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1105" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1105" s="4"/>
+    </row>
+    <row r="1106" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1106" s="4">
+        <v>1105</v>
+      </c>
+      <c r="B1106" s="4">
+        <v>7002</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1106" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1106" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1106" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H1106" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1106" s="4"/>
+    </row>
+    <row r="1107" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1107" s="4">
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="4">
+        <v>7003</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1107" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1107" s="4"/>
+    </row>
+    <row r="1108" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1108" s="4">
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="4">
+        <v>7003</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E1108" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1108" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1108" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1108" s="4"/>
+    </row>
+    <row r="1109" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1109" s="4">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="4">
+        <v>7004</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1109" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1109" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1109" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1109" s="4"/>
+    </row>
+    <row r="1110" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1110" s="4">
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="4">
+        <v>7004</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1110" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1110" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H1110" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1110" s="4"/>
+    </row>
+    <row r="1111" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1111" s="4">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="4">
+        <v>7005</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E1111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1111" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1111" s="4"/>
+    </row>
+    <row r="1112" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1112" s="4">
+        <v>1111</v>
+      </c>
+      <c r="B1112" s="4">
+        <v>7005</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E1112" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1112" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1112" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1112" s="4"/>
+    </row>
+    <row r="1113" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1113" s="4">
+        <v>1112</v>
+      </c>
+      <c r="B1113" s="4">
+        <v>7006</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1113" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1113" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1113" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1113" s="4"/>
+    </row>
+    <row r="1114" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1114" s="4">
+        <v>1113</v>
+      </c>
+      <c r="B1114" s="4">
+        <v>7006</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1114" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1114" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H1114" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1114" s="4"/>
+    </row>
+    <row r="1115" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1115" s="4">
+        <v>1114</v>
+      </c>
+      <c r="B1115" s="4">
+        <v>7007</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E1115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1115" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1115" s="4"/>
+    </row>
+    <row r="1116" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1116" s="4">
+        <v>1115</v>
+      </c>
+      <c r="B1116" s="4">
+        <v>7007</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E1116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1116" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1116" s="4"/>
+    </row>
+    <row r="1117" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1117" s="4">
+        <v>1116</v>
+      </c>
+      <c r="B1117" s="4">
+        <v>7008</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1117" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1117" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1117" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1117" s="4"/>
+    </row>
+    <row r="1118" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1118" s="4">
+        <v>1117</v>
+      </c>
+      <c r="B1118" s="4">
+        <v>7008</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1118" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G1118" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H1118" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1118" s="4"/>
+    </row>
+    <row r="1119" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1119" s="4">
+        <v>1118</v>
+      </c>
+      <c r="B1119" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1119" s="4">
+        <v>837</v>
+      </c>
+      <c r="I1119" s="4"/>
+    </row>
+    <row r="1120" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1120" s="4">
+        <v>1119</v>
+      </c>
+      <c r="B1120" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1120" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1120" s="4"/>
+    </row>
+    <row r="1121" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1121" s="4">
+        <v>1120</v>
+      </c>
+      <c r="B1121" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1121" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1121" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1121" s="4"/>
+    </row>
+    <row r="1122" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1122" s="4">
+        <v>1121</v>
+      </c>
+      <c r="B1122" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1122" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1122" s="4"/>
+    </row>
+    <row r="1123" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1123" s="4">
+        <v>1122</v>
+      </c>
+      <c r="B1123" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1123" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1123" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1123" s="4"/>
+    </row>
+    <row r="1124" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1124" s="4">
+        <v>1123</v>
+      </c>
+      <c r="B1124" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1124" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1124" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1124" s="4"/>
+    </row>
+    <row r="1125" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1125" s="4">
+        <v>1124</v>
+      </c>
+      <c r="B1125" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1125" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1125" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1125" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1125" s="4"/>
+    </row>
+    <row r="1126" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1126" s="4">
+        <v>1125</v>
+      </c>
+      <c r="B1126" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1126" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1126" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1126" s="4"/>
+    </row>
+    <row r="1127" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1127" s="4">
+        <v>1126</v>
+      </c>
+      <c r="B1127" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1127" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1127" s="4"/>
+    </row>
+    <row r="1128" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1128" s="4">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1128" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1128" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1128" s="4"/>
+    </row>
+    <row r="1129" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1129" s="4">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1129" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1129" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1129" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1129" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1129" s="4"/>
+    </row>
+    <row r="1130" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1130" s="4">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="4">
+        <v>7009</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1130" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1130" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1130" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1130" s="4"/>
+    </row>
+    <row r="1131" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1131" s="4">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="4">
+        <v>7010</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1131" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1131" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1131" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1131" s="4"/>
+    </row>
+    <row r="1132" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1132" s="4">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>7010</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1132" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1132" s="4">
+        <v>3</v>
+      </c>
+      <c r="H1132" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1132" s="4"/>
+    </row>
+    <row r="1133" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1133" s="4">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="4">
+        <v>7010</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E1133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1133" s="4">
+        <v>7500</v>
+      </c>
+      <c r="G1133" s="4">
+        <v>7500</v>
+      </c>
+      <c r="H1133" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1133" s="4"/>
+    </row>
+    <row r="1134" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1134" s="4">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="4">
+        <v>7011</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1134" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1134" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1134" s="4">
+        <v>837</v>
+      </c>
+      <c r="I1134" s="4"/>
+    </row>
+    <row r="1135" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1135" s="4">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="4">
+        <v>7011</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1135" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1135" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1135" s="4"/>
+    </row>
+    <row r="1136" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1136" s="4">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="4">
+        <v>7011</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1136" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1136" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1136" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1136" s="4"/>
+    </row>
+    <row r="1137" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1137" s="4">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="4">
+        <v>7011</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1137" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1137" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1137" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1137" s="4"/>
+    </row>
+    <row r="1138" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1138" s="4">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="4">
+        <v>7011</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1138" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1138" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1138" s="4"/>
+    </row>
+    <row r="1139" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1139" s="4">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="4">
+        <v>7011</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1139" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1139" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1139" s="4"/>
+    </row>
+    <row r="1140" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1140" s="4">
+        <v>1139</v>
+      </c>
+      <c r="B1140" s="4">
+        <v>7012</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1140" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1140" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1140" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1140" s="4"/>
+    </row>
+    <row r="1141" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1141" s="4">
+        <v>1140</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>7012</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1141" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1141" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1141" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1141" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1141" s="4"/>
+    </row>
+    <row r="1142" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1142" s="4">
+        <v>1141</v>
+      </c>
+      <c r="B1142" s="4">
+        <v>7012</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1142" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1142" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G1142" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H1142" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1142" s="4"/>
+    </row>
+    <row r="1143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1143" s="4">
+        <v>1142</v>
+      </c>
+      <c r="B1143" s="4">
+        <v>7013</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1143" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1143" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1143" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1143" s="4">
+        <v>837</v>
+      </c>
+      <c r="I1143" s="4"/>
+    </row>
+    <row r="1144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1144" s="4">
+        <v>1143</v>
+      </c>
+      <c r="B1144" s="4">
+        <v>7013</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1144" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1144" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1144" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1144" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1144" s="4"/>
+    </row>
+    <row r="1145" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1145" s="4">
+        <v>1144</v>
+      </c>
+      <c r="B1145" s="4">
+        <v>7013</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1145" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1145" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1145" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1145" s="4"/>
+    </row>
+    <row r="1146" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1146" s="4">
+        <v>1145</v>
+      </c>
+      <c r="B1146" s="4">
+        <v>7013</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1146" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1146" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1146" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1146" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1146" s="4"/>
+    </row>
+    <row r="1147" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1147" s="4">
+        <v>1146</v>
+      </c>
+      <c r="B1147" s="4">
+        <v>7013</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1147" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1147" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1147" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1147" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1147" s="4"/>
+    </row>
+    <row r="1148" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1148" s="4">
+        <v>1147</v>
+      </c>
+      <c r="B1148" s="4">
+        <v>7013</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1148" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1148" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1148" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1148" s="4"/>
+    </row>
+    <row r="1149" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1149" s="4">
+        <v>1148</v>
+      </c>
+      <c r="B1149" s="4">
+        <v>7014</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D1149" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1149" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1149" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1149" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1149" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1149" s="4"/>
+    </row>
+    <row r="1150" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1150" s="4">
+        <v>1149</v>
+      </c>
+      <c r="B1150" s="4">
+        <v>7014</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1150" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1150" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1150" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1150" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1150" s="4"/>
+    </row>
+    <row r="1151" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1151" s="4">
+        <v>1150</v>
+      </c>
+      <c r="B1151" s="4">
+        <v>7014</v>
+      </c>
+      <c r="C1151" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D1151" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1151" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1151" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G1151" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H1151" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1151" s="4"/>
+    </row>
+    <row r="1152" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1152" s="4">
+        <v>1151</v>
+      </c>
+      <c r="B1152" s="4">
+        <v>7015</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1152" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1152" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1152" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1152" s="4">
+        <v>837</v>
+      </c>
+      <c r="I1152" s="4"/>
+    </row>
+    <row r="1153" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1153" s="4">
+        <v>1152</v>
+      </c>
+      <c r="B1153" s="4">
+        <v>7015</v>
+      </c>
+      <c r="C1153" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1153" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1153" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1153" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1153" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1153" s="4"/>
+    </row>
+    <row r="1154" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1154" s="4">
+        <v>1153</v>
+      </c>
+      <c r="B1154" s="4">
+        <v>7015</v>
+      </c>
+      <c r="C1154" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D1154" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1154" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1154" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1154" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1154" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1154" s="4"/>
+    </row>
+    <row r="1155" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1155" s="4">
+        <v>1154</v>
+      </c>
+      <c r="B1155" s="4">
+        <v>7015</v>
+      </c>
+      <c r="C1155" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D1155" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1155" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1155" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1155" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1155" s="4"/>
+    </row>
+    <row r="1156" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1156" s="4">
+        <v>1155</v>
+      </c>
+      <c r="B1156" s="4">
+        <v>7015</v>
+      </c>
+      <c r="C1156" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D1156" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1156" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1156" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1156" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1156" s="4"/>
+    </row>
+    <row r="1157" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1157" s="4">
+        <v>1156</v>
+      </c>
+      <c r="B1157" s="4">
+        <v>7015</v>
+      </c>
+      <c r="C1157" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1157" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1157" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1157" s="4">
+        <v>833</v>
+      </c>
+      <c r="I1157" s="4"/>
+    </row>
+    <row r="1158" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1158" s="4">
+        <v>1157</v>
+      </c>
+      <c r="B1158" s="4">
+        <v>7016</v>
+      </c>
+      <c r="C1158" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D1158" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1158" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1158" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1158" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1158" s="4"/>
+    </row>
+    <row r="1159" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1159" s="4">
+        <v>1158</v>
+      </c>
+      <c r="B1159" s="4">
+        <v>7016</v>
+      </c>
+      <c r="C1159" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D1159" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1159" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1159" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1159" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1159" s="4"/>
+    </row>
+    <row r="1160" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1160" s="4">
+        <v>1159</v>
+      </c>
+      <c r="B1160" s="4">
+        <v>7016</v>
+      </c>
+      <c r="C1160" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D1160" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1160" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G1160" s="4">
+        <v>9000</v>
+      </c>
+      <c r="H1160" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1160" s="4"/>
+    </row>
+    <row r="1161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1161" s="4">
+        <v>1160</v>
+      </c>
+      <c r="B1161" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1161" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1161" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1161" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1161" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1161" s="4"/>
+    </row>
+    <row r="1162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1162" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B1162" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1162" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D1162" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1162" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1162" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1162" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1162" s="4"/>
+    </row>
+    <row r="1163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1163" s="4">
+        <v>1162</v>
+      </c>
+      <c r="B1163" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1163" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D1163" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1163" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1163" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1163" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1163" s="4"/>
+    </row>
+    <row r="1164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1164" s="4">
+        <v>1163</v>
+      </c>
+      <c r="B1164" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1164" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D1164" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1164" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1164" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1164" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1164" s="4"/>
+    </row>
+    <row r="1165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1165" s="4">
+        <v>1164</v>
+      </c>
+      <c r="B1165" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1165" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D1165" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1165" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1165" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1165" s="4"/>
+    </row>
+    <row r="1166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1166" s="4">
+        <v>1165</v>
+      </c>
+      <c r="B1166" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D1166" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1166" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1166" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1166" s="4"/>
+    </row>
+    <row r="1167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1167" s="4">
+        <v>1166</v>
+      </c>
+      <c r="B1167" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1167" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1167" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1167" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1167" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1167" s="4"/>
+    </row>
+    <row r="1168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1168" s="4">
+        <v>1167</v>
+      </c>
+      <c r="B1168" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D1168" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1168" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1168" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1168" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1168" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1168" s="4"/>
+    </row>
+    <row r="1169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1169" s="4">
+        <v>1168</v>
+      </c>
+      <c r="B1169" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1169" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D1169" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1169" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1169" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1169" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1169" s="4"/>
+    </row>
+    <row r="1170" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1170" s="4">
+        <v>1169</v>
+      </c>
+      <c r="B1170" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1170" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D1170" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1170" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1170" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1170" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1170" s="4"/>
+    </row>
+    <row r="1171" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1171" s="4">
+        <v>1170</v>
+      </c>
+      <c r="B1171" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1171" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1171" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1171" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1171" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1171" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1171" s="4"/>
+    </row>
+    <row r="1172" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1172" s="4">
+        <v>1171</v>
+      </c>
+      <c r="B1172" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1172" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D1172" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1172" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1172" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1172" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1172" s="4"/>
+    </row>
+    <row r="1173" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1173" s="4">
+        <v>1172</v>
+      </c>
+      <c r="B1173" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1173" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D1173" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1173" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1173" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1173" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1173" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1173" s="4"/>
+    </row>
+    <row r="1174" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1174" s="4">
+        <v>1173</v>
+      </c>
+      <c r="B1174" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D1174" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1174" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1174" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1174" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1174" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1174" s="4"/>
+    </row>
+    <row r="1175" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1175" s="4">
+        <v>1174</v>
+      </c>
+      <c r="B1175" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D1175" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1175" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1175" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1175" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1175" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1175" s="4"/>
+    </row>
+    <row r="1176" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1176" s="4">
+        <v>1175</v>
+      </c>
+      <c r="B1176" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1176" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D1176" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1176" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1176" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1176" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1176" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1176" s="4"/>
+    </row>
+    <row r="1177" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1177" s="4">
+        <v>1176</v>
+      </c>
+      <c r="B1177" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1177" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D1177" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1177" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1177" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1177" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1177" s="4"/>
+    </row>
+    <row r="1178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1178" s="4">
+        <v>1177</v>
+      </c>
+      <c r="B1178" s="4">
+        <v>7017</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1178" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1178" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1178" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1178" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1178" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1178" s="4"/>
+    </row>
+    <row r="1179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1179" s="4">
+        <v>1178</v>
+      </c>
+      <c r="B1179" s="4">
+        <v>7018</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1179" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1179" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1179" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1179" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1179" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1179" s="4"/>
+    </row>
+    <row r="1180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1180" s="4">
+        <v>1179</v>
+      </c>
+      <c r="B1180" s="4">
+        <v>7018</v>
+      </c>
+      <c r="C1180" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D1180" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1180" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1180" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1180" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1180" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1180" s="4"/>
+    </row>
+    <row r="1181" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1181" s="4">
+        <v>1180</v>
+      </c>
+      <c r="B1181" s="4">
+        <v>7018</v>
+      </c>
+      <c r="C1181" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D1181" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1181" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1181" s="4">
+        <v>10800</v>
+      </c>
+      <c r="G1181" s="4">
+        <v>10800</v>
+      </c>
+      <c r="H1181" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1181" s="4"/>
+    </row>
+    <row r="1182" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1182" s="4">
+        <v>1181</v>
+      </c>
+      <c r="B1182" s="4">
+        <v>7019</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D1182" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1182" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1182" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1182" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1182" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1182" s="4"/>
+    </row>
+    <row r="1183" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1183" s="4">
+        <v>1182</v>
+      </c>
+      <c r="B1183" s="4">
+        <v>7019</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D1183" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1183" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1183" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1183" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1183" s="4"/>
+    </row>
+    <row r="1184" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1184" s="4">
+        <v>1183</v>
+      </c>
+      <c r="B1184" s="4">
+        <v>7020</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D1184" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1184" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1184" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1184" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1184" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1184" s="4"/>
+    </row>
+    <row r="1185" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1185" s="4">
+        <v>1184</v>
+      </c>
+      <c r="B1185" s="4">
+        <v>7020</v>
+      </c>
+      <c r="C1185" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D1185" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1185" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1185" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1185" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1185" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1185" s="4"/>
+    </row>
+    <row r="1186" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1186" s="4">
+        <v>1185</v>
+      </c>
+      <c r="B1186" s="4">
+        <v>7020</v>
+      </c>
+      <c r="C1186" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D1186" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1186" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1186" s="4">
+        <v>13500</v>
+      </c>
+      <c r="G1186" s="4">
+        <v>13500</v>
+      </c>
+      <c r="H1186" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1186" s="4"/>
+    </row>
+    <row r="1187" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1187" s="4">
+        <v>1186</v>
+      </c>
+      <c r="B1187" s="4">
+        <v>7021</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1187" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1187" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1187" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1187" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1187" s="4"/>
+    </row>
+    <row r="1188" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1188" s="4">
+        <v>1187</v>
+      </c>
+      <c r="B1188" s="4">
+        <v>7021</v>
+      </c>
+      <c r="C1188" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D1188" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1188" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1188" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1188" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1188" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I1188" s="4"/>
+    </row>
+    <row r="1189" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1189" s="4">
+        <v>1188</v>
+      </c>
+      <c r="B1189" s="4">
+        <v>7022</v>
+      </c>
+      <c r="C1189" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1189" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1189" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1189" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1189" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1189" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1189" s="4"/>
+    </row>
+    <row r="1190" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1190" s="4">
+        <v>1189</v>
+      </c>
+      <c r="B1190" s="4">
+        <v>7022</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1190" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1190" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1190" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1190" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1190" s="4"/>
+    </row>
+    <row r="1191" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1191" s="4">
+        <v>1190</v>
+      </c>
+      <c r="B1191" s="4">
+        <v>7022</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1191" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1191" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1191" s="4">
+        <v>13500</v>
+      </c>
+      <c r="G1191" s="4">
+        <v>13500</v>
+      </c>
+      <c r="H1191" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1191" s="4"/>
+    </row>
+    <row r="1192" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1192" s="4">
+        <v>1191</v>
+      </c>
+      <c r="B1192" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1192" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D1192" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1192" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1192" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1192" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1192" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1192" s="4"/>
+    </row>
+    <row r="1193" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1193" s="4">
+        <v>1192</v>
+      </c>
+      <c r="B1193" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1193" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1193" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1193" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1193" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1193" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1193" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1193" s="4"/>
+    </row>
+    <row r="1194" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1194" s="4">
+        <v>1193</v>
+      </c>
+      <c r="B1194" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1194" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1194" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1194" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1194" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1194" s="4"/>
+    </row>
+    <row r="1195" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1195" s="4">
+        <v>1194</v>
+      </c>
+      <c r="B1195" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1195" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1195" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1195" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1195" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1195" s="4"/>
+    </row>
+    <row r="1196" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1196" s="4">
+        <v>1195</v>
+      </c>
+      <c r="B1196" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1196" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D1196" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1196" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1196" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1196" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1196" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1196" s="4"/>
+    </row>
+    <row r="1197" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1197" s="4">
+        <v>1196</v>
+      </c>
+      <c r="B1197" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1197" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D1197" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1197" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1197" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1197" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1197" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1197" s="4"/>
+    </row>
+    <row r="1198" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1198" s="4">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1198" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1198" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1198" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1198" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1198" s="4"/>
+    </row>
+    <row r="1199" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1199" s="4">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D1199" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1199" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1199" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1199" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1199" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1199" s="4"/>
+    </row>
+    <row r="1200" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1200" s="4">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1200" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1200" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1200" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1200" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1200" s="4"/>
+    </row>
+    <row r="1201" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1201" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1201" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D1201" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1201" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1201" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1201" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1201" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1201" s="4"/>
+    </row>
+    <row r="1202" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1202" s="4">
+        <v>1201</v>
+      </c>
+      <c r="B1202" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D1202" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1202" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1202" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1202" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1202" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1202" s="4"/>
+    </row>
+    <row r="1203" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1203" s="4">
+        <v>1202</v>
+      </c>
+      <c r="B1203" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1203" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1203" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1203" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1203" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1203" s="4"/>
+    </row>
+    <row r="1204" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1204" s="4">
+        <v>1203</v>
+      </c>
+      <c r="B1204" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D1204" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1204" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1204" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1204" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1204" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1204" s="4"/>
+    </row>
+    <row r="1205" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1205" s="4">
+        <v>1204</v>
+      </c>
+      <c r="B1205" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1205" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1205" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1205" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1205" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1205" s="4"/>
+    </row>
+    <row r="1206" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1206" s="4">
+        <v>1205</v>
+      </c>
+      <c r="B1206" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1206" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1206" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1206" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1206" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1206" s="4"/>
+    </row>
+    <row r="1207" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1207" s="4">
+        <v>1206</v>
+      </c>
+      <c r="B1207" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1207" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D1207" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1207" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1207" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1207" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1207" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1207" s="4"/>
+    </row>
+    <row r="1208" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1208" s="4">
+        <v>1207</v>
+      </c>
+      <c r="B1208" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1208" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D1208" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1208" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1208" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1208" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1208" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1208" s="4"/>
+    </row>
+    <row r="1209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1209" s="4">
+        <v>1208</v>
+      </c>
+      <c r="B1209" s="4">
+        <v>7023</v>
+      </c>
+      <c r="C1209" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D1209" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1209" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1209" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1209" s="4">
+        <v>4</v>
+      </c>
+      <c r="H1209" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1209" s="4"/>
+    </row>
+    <row r="1210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1210" s="4">
+        <v>1209</v>
+      </c>
+      <c r="B1210" s="4">
+        <v>7024</v>
+      </c>
+      <c r="C1210" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D1210" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1210" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1210" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1210" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1210" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1210" s="4"/>
+    </row>
+    <row r="1211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1211" s="4">
+        <v>1210</v>
+      </c>
+      <c r="B1211" s="4">
+        <v>7024</v>
+      </c>
+      <c r="C1211" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D1211" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1211" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1211" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1211" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1211" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1211" s="4"/>
+    </row>
+    <row r="1212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1212" s="4">
+        <v>1211</v>
+      </c>
+      <c r="B1212" s="4">
+        <v>7024</v>
+      </c>
+      <c r="C1212" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D1212" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1212" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1212" s="4">
+        <v>13500</v>
+      </c>
+      <c r="G1212" s="4">
+        <v>13500</v>
+      </c>
+      <c r="H1212" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1212" s="4"/>
+    </row>
+    <row r="1213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1213" s="4">
+        <v>1212</v>
+      </c>
+      <c r="B1213" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1213" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D1213" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1213" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1213" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1213" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1213" s="4"/>
+    </row>
+    <row r="1214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1214" s="4">
+        <v>1213</v>
+      </c>
+      <c r="B1214" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1214" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D1214" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1214" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1214" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1214" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1214" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1214" s="4"/>
+    </row>
+    <row r="1215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1215" s="4">
+        <v>1214</v>
+      </c>
+      <c r="B1215" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1215" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D1215" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1215" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1215" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1215" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1215" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1215" s="4"/>
+    </row>
+    <row r="1216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1216" s="4">
+        <v>1215</v>
+      </c>
+      <c r="B1216" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1216" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D1216" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1216" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1216" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1216" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1216" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1216" s="4"/>
+    </row>
+    <row r="1217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1217" s="4">
+        <v>1216</v>
+      </c>
+      <c r="B1217" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1217" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D1217" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1217" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1217" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1217" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1217" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1217" s="4"/>
+    </row>
+    <row r="1218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1218" s="4">
+        <v>1217</v>
+      </c>
+      <c r="B1218" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1218" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D1218" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1218" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1218" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1218" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1218" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1218" s="4"/>
+    </row>
+    <row r="1219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1219" s="4">
+        <v>1218</v>
+      </c>
+      <c r="B1219" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1219" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1219" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1219" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1219" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1219" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1219" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1219" s="4"/>
+    </row>
+    <row r="1220" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1220" s="4">
+        <v>1219</v>
+      </c>
+      <c r="B1220" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1220" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D1220" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1220" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1220" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1220" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1220" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1220" s="4"/>
+    </row>
+    <row r="1221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1221" s="4">
+        <v>1220</v>
+      </c>
+      <c r="B1221" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1221" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D1221" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1221" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1221" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1221" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1221" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1221" s="4"/>
+    </row>
+    <row r="1222" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1222" s="4">
+        <v>1221</v>
+      </c>
+      <c r="B1222" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1222" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D1222" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1222" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1222" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1222" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1222" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1222" s="4"/>
+    </row>
+    <row r="1223" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1223" s="4">
+        <v>1222</v>
+      </c>
+      <c r="B1223" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1223" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D1223" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1223" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1223" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1223" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1223" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1223" s="4"/>
+    </row>
+    <row r="1224" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1224" s="4">
+        <v>1223</v>
+      </c>
+      <c r="B1224" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1224" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1224" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1224" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1224" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1224" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1224" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1224" s="4"/>
+    </row>
+    <row r="1225" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1225" s="4">
+        <v>1224</v>
+      </c>
+      <c r="B1225" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1225" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D1225" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1225" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1225" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1225" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1225" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1225" s="4"/>
+    </row>
+    <row r="1226" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1226" s="4">
+        <v>1225</v>
+      </c>
+      <c r="B1226" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1226" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D1226" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1226" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1226" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1226" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1226" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1226" s="4"/>
+    </row>
+    <row r="1227" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1227" s="4">
+        <v>1226</v>
+      </c>
+      <c r="B1227" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1227" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D1227" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1227" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1227" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1227" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1227" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1227" s="4"/>
+    </row>
+    <row r="1228" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1228" s="4">
+        <v>1227</v>
+      </c>
+      <c r="B1228" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1228" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D1228" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1228" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1228" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1228" s="4">
+        <v>8</v>
+      </c>
+      <c r="H1228" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1228" s="4"/>
+    </row>
+    <row r="1229" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1229" s="4">
+        <v>1228</v>
+      </c>
+      <c r="B1229" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1229" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D1229" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1229" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1229" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1229" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1229" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1229" s="4"/>
+    </row>
+    <row r="1230" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1230" s="4">
+        <v>1229</v>
+      </c>
+      <c r="B1230" s="4">
+        <v>7025</v>
+      </c>
+      <c r="C1230" s="4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1230" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1230" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1230" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1230" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1230" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1230" s="4"/>
+    </row>
+    <row r="1231" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1231" s="4">
+        <v>1230</v>
+      </c>
+      <c r="B1231" s="4">
+        <v>7026</v>
+      </c>
+      <c r="C1231" s="4" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1231" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1231" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1231" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1231" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1231" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1231" s="4"/>
+    </row>
+    <row r="1232" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1232" s="4">
+        <v>1231</v>
+      </c>
+      <c r="B1232" s="4">
+        <v>7026</v>
+      </c>
+      <c r="C1232" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D1232" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1232" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1232" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1232" s="4">
+        <v>3</v>
+      </c>
+      <c r="H1232" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1232" s="4"/>
+    </row>
+    <row r="1233" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1233" s="4">
+        <v>1232</v>
+      </c>
+      <c r="B1233" s="4">
+        <v>7026</v>
+      </c>
+      <c r="C1233" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D1233" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1233" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1233" s="4">
+        <v>16500</v>
+      </c>
+      <c r="G1233" s="4">
+        <v>16500</v>
+      </c>
+      <c r="H1233" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1233" s="4"/>
+    </row>
+    <row r="1234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1234" s="4">
+        <v>1233</v>
+      </c>
+      <c r="B1234" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1234" s="4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D1234" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1234" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1234" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1234" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1234" s="4"/>
+    </row>
+    <row r="1235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1235" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B1235" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1235" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D1235" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1235" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1235" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1235" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1235" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1235" s="4"/>
+    </row>
+    <row r="1236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1236" s="4">
+        <v>1235</v>
+      </c>
+      <c r="B1236" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1236" s="4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D1236" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1236" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1236" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1236" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1236" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1236" s="4"/>
+    </row>
+    <row r="1237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1237" s="4">
+        <v>1236</v>
+      </c>
+      <c r="B1237" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1237" s="4" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D1237" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1237" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1237" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1237" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1237" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1237" s="4"/>
+    </row>
+    <row r="1238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1238" s="4">
+        <v>1237</v>
+      </c>
+      <c r="B1238" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1238" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D1238" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1238" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1238" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1238" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1238" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1238" s="4"/>
+    </row>
+    <row r="1239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1239" s="4">
+        <v>1238</v>
+      </c>
+      <c r="B1239" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1239" s="4" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D1239" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1239" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1239" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1239" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1239" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1239" s="4"/>
+    </row>
+    <row r="1240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1240" s="4">
+        <v>1239</v>
+      </c>
+      <c r="B1240" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1240" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D1240" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1240" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1240" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1240" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1240" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1240" s="4"/>
+    </row>
+    <row r="1241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1241" s="4">
+        <v>1240</v>
+      </c>
+      <c r="B1241" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1241" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D1241" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1241" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1241" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1241" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1241" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1241" s="4"/>
+    </row>
+    <row r="1242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1242" s="4">
+        <v>1241</v>
+      </c>
+      <c r="B1242" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1242" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D1242" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1242" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1242" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1242" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1242" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1242" s="4"/>
+    </row>
+    <row r="1243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1243" s="4">
+        <v>1242</v>
+      </c>
+      <c r="B1243" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1243" s="4" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D1243" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1243" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1243" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1243" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1243" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1243" s="4"/>
+    </row>
+    <row r="1244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1244" s="4">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1244" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D1244" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1244" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1244" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1244" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1244" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1244" s="4"/>
+    </row>
+    <row r="1245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1245" s="4">
+        <v>1244</v>
+      </c>
+      <c r="B1245" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1245" s="4" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1245" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1245" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1245" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1245" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1245" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1245" s="4"/>
+    </row>
+    <row r="1246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1246" s="4">
+        <v>1245</v>
+      </c>
+      <c r="B1246" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1246" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D1246" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1246" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1246" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1246" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1246" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1246" s="4"/>
+    </row>
+    <row r="1247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1247" s="4">
+        <v>1246</v>
+      </c>
+      <c r="B1247" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1247" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1247" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1247" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1247" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1247" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1247" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1247" s="4"/>
+    </row>
+    <row r="1248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1248" s="4">
+        <v>1247</v>
+      </c>
+      <c r="B1248" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1248" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D1248" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1248" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1248" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1248" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1248" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1248" s="4"/>
+    </row>
+    <row r="1249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1249" s="4">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1249" s="4" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D1249" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1249" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1249" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1249" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1249" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1249" s="4"/>
+    </row>
+    <row r="1250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1250" s="4">
+        <v>1249</v>
+      </c>
+      <c r="B1250" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1250" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1250" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1250" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1250" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1250" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1250" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1250" s="4"/>
+    </row>
+    <row r="1251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1251" s="4">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="4">
+        <v>7027</v>
+      </c>
+      <c r="C1251" s="4" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1251" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1251" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1251" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1251" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1251" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1251" s="4"/>
+    </row>
+    <row r="1252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1252" s="4">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="4">
+        <v>7028</v>
+      </c>
+      <c r="C1252" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1252" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1252" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1252" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1252" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1252" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1252" s="4"/>
+    </row>
+    <row r="1253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1253" s="4">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="4">
+        <v>7028</v>
+      </c>
+      <c r="C1253" s="4" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1253" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1253" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1253" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1253" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1253" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1253" s="4"/>
+    </row>
+    <row r="1254" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1254" s="4">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="4">
+        <v>7028</v>
+      </c>
+      <c r="C1254" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D1254" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1254" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1254" s="4">
+        <v>19500</v>
+      </c>
+      <c r="G1254" s="4">
+        <v>19500</v>
+      </c>
+      <c r="H1254" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1254" s="4"/>
+    </row>
+    <row r="1255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1255" s="4">
+        <v>1254</v>
+      </c>
+      <c r="B1255" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1255" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D1255" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1255" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1255" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1255" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1255" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1255" s="4"/>
+    </row>
+    <row r="1256" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1256" s="4">
+        <v>1255</v>
+      </c>
+      <c r="B1256" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1256" s="4" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D1256" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1256" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1256" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1256" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1256" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1256" s="4"/>
+    </row>
+    <row r="1257" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1257" s="4">
+        <v>1256</v>
+      </c>
+      <c r="B1257" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1257" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1257" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1257" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1257" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1257" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1257" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1257" s="4"/>
+    </row>
+    <row r="1258" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1258" s="4">
+        <v>1257</v>
+      </c>
+      <c r="B1258" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1258" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1258" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1258" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1258" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1258" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1258" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1258" s="4"/>
+    </row>
+    <row r="1259" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1259" s="4">
+        <v>1258</v>
+      </c>
+      <c r="B1259" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1259" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D1259" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1259" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1259" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1259" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1259" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1259" s="4"/>
+    </row>
+    <row r="1260" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1260" s="4">
+        <v>1259</v>
+      </c>
+      <c r="B1260" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1260" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D1260" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1260" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1260" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1260" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1260" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1260" s="4"/>
+    </row>
+    <row r="1261" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1261" s="4">
+        <v>1260</v>
+      </c>
+      <c r="B1261" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1261" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1261" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1261" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1261" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1261" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1261" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1261" s="4"/>
+    </row>
+    <row r="1262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1262" s="4">
+        <v>1261</v>
+      </c>
+      <c r="B1262" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1262" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1262" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1262" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1262" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1262" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1262" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1262" s="4"/>
+    </row>
+    <row r="1263" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1263" s="4">
+        <v>1262</v>
+      </c>
+      <c r="B1263" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1263" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1263" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1263" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1263" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1263" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1263" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1263" s="4"/>
+    </row>
+    <row r="1264" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1264" s="4">
+        <v>1263</v>
+      </c>
+      <c r="B1264" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1264" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D1264" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1264" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1264" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1264" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1264" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1264" s="4"/>
+    </row>
+    <row r="1265" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1265" s="4">
+        <v>1264</v>
+      </c>
+      <c r="B1265" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1265" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1265" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1265" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1265" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1265" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1265" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1265" s="4"/>
+    </row>
+    <row r="1266" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1266" s="4">
+        <v>1265</v>
+      </c>
+      <c r="B1266" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1266" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D1266" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1266" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1266" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1266" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1266" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1266" s="4"/>
+    </row>
+    <row r="1267" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1267" s="4">
+        <v>1266</v>
+      </c>
+      <c r="B1267" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1267" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D1267" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1267" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1267" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1267" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1267" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1267" s="4"/>
+    </row>
+    <row r="1268" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1268" s="4">
+        <v>1267</v>
+      </c>
+      <c r="B1268" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1268" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1268" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1268" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1268" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1268" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1268" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1268" s="4"/>
+    </row>
+    <row r="1269" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1269" s="4">
+        <v>1268</v>
+      </c>
+      <c r="B1269" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1269" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1269" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1269" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1269" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1269" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1269" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1269" s="4"/>
+    </row>
+    <row r="1270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1270" s="4">
+        <v>1269</v>
+      </c>
+      <c r="B1270" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1270" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1270" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1270" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1270" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1270" s="4">
+        <v>12</v>
+      </c>
+      <c r="H1270" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1270" s="4"/>
+    </row>
+    <row r="1271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1271" s="4">
+        <v>1270</v>
+      </c>
+      <c r="B1271" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1271" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1271" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1271" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1271" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1271" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1271" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1271" s="4"/>
+    </row>
+    <row r="1272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1272" s="4">
+        <v>1271</v>
+      </c>
+      <c r="B1272" s="4">
+        <v>7029</v>
+      </c>
+      <c r="C1272" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D1272" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1272" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1272" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1272" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1272" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1272" s="4"/>
+    </row>
+    <row r="1273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1273" s="4">
+        <v>1272</v>
+      </c>
+      <c r="B1273" s="4">
+        <v>7030</v>
+      </c>
+      <c r="C1273" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1273" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1273" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1273" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1273" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1273" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1273" s="4"/>
+    </row>
+    <row r="1274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1274" s="4">
+        <v>1273</v>
+      </c>
+      <c r="B1274" s="4">
+        <v>7030</v>
+      </c>
+      <c r="C1274" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D1274" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1274" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1274" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1274" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1274" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1274" s="4"/>
+    </row>
+    <row r="1275" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1275" s="4">
+        <v>1274</v>
+      </c>
+      <c r="B1275" s="4">
+        <v>7030</v>
+      </c>
+      <c r="C1275" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D1275" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1275" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1275" s="4">
+        <v>22500</v>
+      </c>
+      <c r="G1275" s="4">
+        <v>22500</v>
+      </c>
+      <c r="H1275" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1275" s="4"/>
+    </row>
+    <row r="1276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1276" s="4">
+        <v>1275</v>
+      </c>
+      <c r="B1276" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1276" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D1276" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1276" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1276" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1276" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1276" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1276" s="4"/>
+    </row>
+    <row r="1277" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1277" s="4">
+        <v>1276</v>
+      </c>
+      <c r="B1277" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1277" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D1277" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1277" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1277" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1277" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1277" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1277" s="4"/>
+    </row>
+    <row r="1278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1278" s="4">
+        <v>1277</v>
+      </c>
+      <c r="B1278" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1278" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D1278" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1278" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1278" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1278" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1278" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1278" s="4"/>
+    </row>
+    <row r="1279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1279" s="4">
+        <v>1278</v>
+      </c>
+      <c r="B1279" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1279" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D1279" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1279" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1279" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1279" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1279" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1279" s="4"/>
+    </row>
+    <row r="1280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1280" s="4">
+        <v>1279</v>
+      </c>
+      <c r="B1280" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1280" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1280" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1280" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1280" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1280" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1280" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1280" s="4"/>
+    </row>
+    <row r="1281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1281" s="4">
+        <v>1280</v>
+      </c>
+      <c r="B1281" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1281" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1281" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1281" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1281" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1281" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1281" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1281" s="4"/>
+    </row>
+    <row r="1282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1282" s="4">
+        <v>1281</v>
+      </c>
+      <c r="B1282" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1282" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D1282" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1282" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1282" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1282" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1282" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1282" s="4"/>
+    </row>
+    <row r="1283" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1283" s="4">
+        <v>1282</v>
+      </c>
+      <c r="B1283" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1283" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1283" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E1283" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1283" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1283" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1283" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1283" s="4"/>
+    </row>
+    <row r="1284" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1284" s="4">
+        <v>1283</v>
+      </c>
+      <c r="B1284" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1284" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D1284" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1284" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1284" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1284" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1284" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1284" s="4"/>
+    </row>
+    <row r="1285" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1285" s="4">
+        <v>1284</v>
+      </c>
+      <c r="B1285" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1285" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D1285" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1285" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1285" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1285" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1285" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1285" s="4"/>
+    </row>
+    <row r="1286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1286" s="4">
+        <v>1285</v>
+      </c>
+      <c r="B1286" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1286" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D1286" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1286" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1286" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1286" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1286" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1286" s="4"/>
+    </row>
+    <row r="1287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1287" s="4">
+        <v>1286</v>
+      </c>
+      <c r="B1287" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1287" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D1287" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1287" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1287" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1287" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1287" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1287" s="4"/>
+    </row>
+    <row r="1288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1288" s="4">
+        <v>1287</v>
+      </c>
+      <c r="B1288" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1288" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D1288" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1288" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1288" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1288" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1288" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1288" s="4"/>
+    </row>
+    <row r="1289" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1289" s="4">
+        <v>1288</v>
+      </c>
+      <c r="B1289" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1289" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D1289" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1289" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1289" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1289" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1289" s="4">
+        <v>556</v>
+      </c>
+      <c r="I1289" s="4"/>
+    </row>
+    <row r="1290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1290" s="4">
+        <v>1289</v>
+      </c>
+      <c r="B1290" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1290" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1290" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1290" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1290" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1290" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1290" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1290" s="4"/>
+    </row>
+    <row r="1291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1291" s="4">
+        <v>1290</v>
+      </c>
+      <c r="B1291" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1291" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D1291" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1291" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1291" s="4">
+        <v>7</v>
+      </c>
+      <c r="G1291" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1291" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1291" s="4"/>
+    </row>
+    <row r="1292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1292" s="4">
+        <v>1291</v>
+      </c>
+      <c r="B1292" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1292" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1292" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1292" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1292" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1292" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1292" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1292" s="4"/>
+    </row>
+    <row r="1293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1293" s="4">
+        <v>1292</v>
+      </c>
+      <c r="B1293" s="4">
+        <v>7031</v>
+      </c>
+      <c r="C1293" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D1293" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1293" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1293" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1293" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1293" s="4">
+        <v>555</v>
+      </c>
+      <c r="I1293" s="4"/>
+    </row>
+    <row r="1294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1294" s="4">
+        <v>1293</v>
+      </c>
+      <c r="B1294" s="4">
+        <v>7032</v>
+      </c>
+      <c r="C1294" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D1294" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1294" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1294" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1294" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1294" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1294" s="4"/>
+    </row>
+    <row r="1295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1295" s="4">
+        <v>1294</v>
+      </c>
+      <c r="B1295" s="4">
+        <v>7032</v>
+      </c>
+      <c r="C1295" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D1295" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1295" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1295" s="4">
+        <v>10</v>
+      </c>
+      <c r="G1295" s="4">
+        <v>10</v>
+      </c>
+      <c r="H1295" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1295" s="4"/>
+    </row>
+    <row r="1296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1296" s="4">
+        <v>1295</v>
+      </c>
+      <c r="B1296" s="4">
+        <v>7032</v>
+      </c>
+      <c r="C1296" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D1296" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E1296" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1296" s="4">
+        <v>26250</v>
+      </c>
+      <c r="G1296" s="4">
+        <v>26250</v>
+      </c>
+      <c r="H1296" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I1296" s="4"/>
+    </row>
+    <row r="1297" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1297" s="4">
+        <v>1296</v>
+      </c>
+      <c r="B1297" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1297" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1297</f>
+        <v>世界BOSS专属武器:关羽专属武器碎片</v>
+      </c>
+      <c r="D1297" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1297" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1297" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1297" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1297" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1298" s="4">
+        <v>1297</v>
+      </c>
+      <c r="B1298" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1298" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1298</f>
+        <v>世界BOSS专属武器:许褚专属武器碎片</v>
+      </c>
+      <c r="D1298" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1298" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1298" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1298" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1298" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1299" s="4">
+        <v>1298</v>
+      </c>
+      <c r="B1299" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1299" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1299</f>
+        <v>世界BOSS专属武器:典韦专属武器碎片</v>
+      </c>
+      <c r="D1299" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1299" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1299" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1299" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1299" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1300" s="4">
+        <v>1299</v>
+      </c>
+      <c r="B1300" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1300" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1300</f>
+        <v>世界BOSS专属武器:唐流雨专属武器碎片</v>
+      </c>
+      <c r="D1300" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1300" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1300" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1300" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1300" s="5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1301" s="4">
+        <v>1300</v>
+      </c>
+      <c r="B1301" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1301" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1301</f>
+        <v>世界BOSS专属武器:李轩辕专属武器碎片</v>
+      </c>
+      <c r="D1301" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1301" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1301" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1301" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1301" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1302" s="4">
+        <v>1301</v>
+      </c>
+      <c r="B1302" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1302" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1302</f>
+        <v>世界BOSS专属武器:项羽专属武器碎片</v>
+      </c>
+      <c r="D1302" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1302" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1302" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1302" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1302" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1303" s="4">
+        <v>1302</v>
+      </c>
+      <c r="B1303" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1303" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1303</f>
+        <v>世界BOSS专属武器:天使缇娜专属武器碎片</v>
+      </c>
+      <c r="D1303" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1303" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1303" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1303" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1303" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1304" s="4">
+        <v>1303</v>
+      </c>
+      <c r="B1304" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1304" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1304</f>
+        <v>世界BOSS专属武器:夏侯渊专属武器碎片</v>
+      </c>
+      <c r="D1304" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1304" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1304" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1304" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1304" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1305" s="4">
+        <v>1304</v>
+      </c>
+      <c r="B1305" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1305" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1305</f>
+        <v>世界BOSS专属武器:徐晃专属武器碎片</v>
+      </c>
+      <c r="D1305" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1305" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1305" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1305" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1305" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1306" s="4">
+        <v>1305</v>
+      </c>
+      <c r="B1306" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1306" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1306</f>
+        <v>世界BOSS专属武器:张郃专属武器碎片</v>
+      </c>
+      <c r="D1306" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1306" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1306" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1306" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1306" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1307" s="4">
+        <v>1306</v>
+      </c>
+      <c r="B1307" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1307" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1307</f>
+        <v>世界BOSS专属武器:张飞专属武器碎片</v>
+      </c>
+      <c r="D1307" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1307" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1307" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1307" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1307" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1308" s="4">
+        <v>1307</v>
+      </c>
+      <c r="B1308" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1308" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1308</f>
+        <v>世界BOSS专属武器:夏侯惇专属武器碎片</v>
+      </c>
+      <c r="D1308" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1308" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1308" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1308" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1308" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1309" s="4">
+        <v>1308</v>
+      </c>
+      <c r="B1309" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1309" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1309</f>
+        <v>世界BOSS专属武器:塞伯罗斯专属武器碎片</v>
+      </c>
+      <c r="D1309" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1309" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1309" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1309" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1309" s="5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1310" s="4">
+        <v>1309</v>
+      </c>
+      <c r="B1310" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1310" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1310</f>
+        <v>世界BOSS专属武器:石灵明专属武器碎片</v>
+      </c>
+      <c r="D1310" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1310" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1310" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1310" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1310" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1311" s="4">
+        <v>1310</v>
+      </c>
+      <c r="B1311" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1311" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1311</f>
+        <v>世界BOSS专属武器:于禁专属武器碎片</v>
+      </c>
+      <c r="D1311" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1311" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1311" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1311" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1311" s="5">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1312" s="4">
+        <v>1311</v>
+      </c>
+      <c r="B1312" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1312" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1312</f>
+        <v>世界BOSS专属武器:西方龙专属武器碎片</v>
+      </c>
+      <c r="D1312" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1312" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1312" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1312" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1312" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1313" s="4">
+        <v>1312</v>
+      </c>
+      <c r="B1313" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1313" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1313</f>
+        <v>世界BOSS专属武器:飞廉专属武器碎片</v>
+      </c>
+      <c r="D1313" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1313" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1313" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1313" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1313" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1314" s="4">
+        <v>1313</v>
+      </c>
+      <c r="B1314" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1314" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1314</f>
+        <v>世界BOSS专属武器:噬日专属武器碎片</v>
+      </c>
+      <c r="D1314" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1314" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1314" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1314" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1314" s="5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1315" s="4">
+        <v>1314</v>
+      </c>
+      <c r="B1315" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1315" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1315</f>
+        <v>世界BOSS专属武器:食火蜥专属武器碎片</v>
+      </c>
+      <c r="D1315" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1315" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1315" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1315" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1315" s="5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1316" s="4">
+        <v>1315</v>
+      </c>
+      <c r="B1316" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1316" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1316</f>
+        <v>世界BOSS专属武器:高顺专属武器碎片</v>
+      </c>
+      <c r="D1316" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1316" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1316" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1316" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1316" s="5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1317" s="4">
+        <v>1316</v>
+      </c>
+      <c r="B1317" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1317" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1317</f>
+        <v>世界BOSS专属武器:烈风螳螂专属武器碎片</v>
+      </c>
+      <c r="D1317" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1317" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1317" s="4">
+        <v>1</v>
+      </c>
+      <c r="G1317" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1317" s="5">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1318" s="4">
+        <v>1317</v>
+      </c>
+      <c r="B1318" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1318" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1318&amp;"x"&amp;G1318</f>
+        <v>世界BOSS专属武器:关羽专属武器碎片x30</v>
+      </c>
+      <c r="D1318" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1318" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1318" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1318" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1318" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1319" s="4">
+        <v>1318</v>
+      </c>
+      <c r="B1319" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1319" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1319&amp;"x"&amp;G1319</f>
+        <v>世界BOSS专属武器:许褚专属武器碎片x30</v>
+      </c>
+      <c r="D1319" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1319" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1319" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1319" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1319" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1320" s="4">
+        <v>1319</v>
+      </c>
+      <c r="B1320" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1320" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1320&amp;"x"&amp;G1320</f>
+        <v>世界BOSS专属武器:典韦专属武器碎片x30</v>
+      </c>
+      <c r="D1320" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1320" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1320" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1320" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1320" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1321" s="4">
+        <v>1320</v>
+      </c>
+      <c r="B1321" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1321" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1321&amp;"x"&amp;G1321</f>
+        <v>世界BOSS专属武器:唐流雨专属武器碎片x30</v>
+      </c>
+      <c r="D1321" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1321" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1321" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1321" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1321" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1322" s="4">
+        <v>1321</v>
+      </c>
+      <c r="B1322" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1322" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1322&amp;"x"&amp;G1322</f>
+        <v>世界BOSS专属武器:李轩辕专属武器碎片x30</v>
+      </c>
+      <c r="D1322" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1322" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1322" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1322" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1322" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1323" s="4">
+        <v>1322</v>
+      </c>
+      <c r="B1323" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1323" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1323&amp;"x"&amp;G1323</f>
+        <v>世界BOSS专属武器:项羽专属武器碎片x30</v>
+      </c>
+      <c r="D1323" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1323" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1323" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1323" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1323" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1324" s="4">
+        <v>1323</v>
+      </c>
+      <c r="B1324" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1324" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1324&amp;"x"&amp;G1324</f>
+        <v>世界BOSS专属武器:天使缇娜专属武器碎片x30</v>
+      </c>
+      <c r="D1324" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1324" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1324" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1324" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1324" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1325" s="4">
+        <v>1324</v>
+      </c>
+      <c r="B1325" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1325" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1325&amp;"x"&amp;G1325</f>
+        <v>世界BOSS专属武器:夏侯渊专属武器碎片x30</v>
+      </c>
+      <c r="D1325" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1325" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1325" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1325" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1325" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1326" s="4">
+        <v>1325</v>
+      </c>
+      <c r="B1326" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1326" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1326&amp;"x"&amp;G1326</f>
+        <v>世界BOSS专属武器:徐晃专属武器碎片x30</v>
+      </c>
+      <c r="D1326" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1326" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1326" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1326" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1326" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1327" s="4">
+        <v>1326</v>
+      </c>
+      <c r="B1327" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1327" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1327&amp;"x"&amp;G1327</f>
+        <v>世界BOSS专属武器:张郃专属武器碎片x30</v>
+      </c>
+      <c r="D1327" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1327" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1327" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1327" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1327" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1328" s="4">
+        <v>1327</v>
+      </c>
+      <c r="B1328" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1328" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1328&amp;"x"&amp;G1328</f>
+        <v>世界BOSS专属武器:张飞专属武器碎片x30</v>
+      </c>
+      <c r="D1328" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1328" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1328" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1328" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1328" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1329" s="4">
+        <v>1328</v>
+      </c>
+      <c r="B1329" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1329" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1329&amp;"x"&amp;G1329</f>
+        <v>世界BOSS专属武器:夏侯惇专属武器碎片x30</v>
+      </c>
+      <c r="D1329" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1329" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1329" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1329" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1329" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1330" s="4">
+        <v>1329</v>
+      </c>
+      <c r="B1330" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1330" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1330&amp;"x"&amp;G1330</f>
+        <v>世界BOSS专属武器:塞伯罗斯专属武器碎片x30</v>
+      </c>
+      <c r="D1330" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1330" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1330" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1330" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1330" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1331" s="4">
+        <v>1330</v>
+      </c>
+      <c r="B1331" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1331" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1331&amp;"x"&amp;G1331</f>
+        <v>世界BOSS专属武器:石灵明专属武器碎片x30</v>
+      </c>
+      <c r="D1331" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1331" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1331" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1331" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1331" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1332" s="4">
+        <v>1331</v>
+      </c>
+      <c r="B1332" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1332" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1332&amp;"x"&amp;G1332</f>
+        <v>世界BOSS专属武器:于禁专属武器碎片x30</v>
+      </c>
+      <c r="D1332" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1332" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1332" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1332" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1332" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1333" s="4">
+        <v>1332</v>
+      </c>
+      <c r="B1333" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1333" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1333&amp;"x"&amp;G1333</f>
+        <v>世界BOSS专属武器:西方龙专属武器碎片x30</v>
+      </c>
+      <c r="D1333" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1333" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1333" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1333" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1333" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1334" s="4">
+        <v>1333</v>
+      </c>
+      <c r="B1334" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1334" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1334&amp;"x"&amp;G1334</f>
+        <v>世界BOSS专属武器:飞廉专属武器碎片x30</v>
+      </c>
+      <c r="D1334" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1334" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1334" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1334" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1334" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1335" s="4">
+        <v>1334</v>
+      </c>
+      <c r="B1335" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1335" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1335&amp;"x"&amp;G1335</f>
+        <v>世界BOSS专属武器:噬日专属武器碎片x30</v>
+      </c>
+      <c r="D1335" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1335" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1335" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1335" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1335" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1336" s="4">
+        <v>1335</v>
+      </c>
+      <c r="B1336" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1336" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1336&amp;"x"&amp;G1336</f>
+        <v>世界BOSS专属武器:食火蜥专属武器碎片x30</v>
+      </c>
+      <c r="D1336" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1336" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1336" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1336" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1336" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1337" s="4">
+        <v>1336</v>
+      </c>
+      <c r="B1337" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1337" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1337&amp;"x"&amp;G1337</f>
+        <v>世界BOSS专属武器:高顺专属武器碎片x30</v>
+      </c>
+      <c r="D1337" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1337" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1337" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1337" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1337" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1338" s="4">
+        <v>1337</v>
+      </c>
+      <c r="B1338" s="4">
+        <v>7033</v>
+      </c>
+      <c r="C1338" s="5" t="str">
+        <f>"世界BOSS专属武器:"&amp;D1338&amp;"x"&amp;G1338</f>
+        <v>世界BOSS专属武器:烈风螳螂专属武器碎片x30</v>
+      </c>
+      <c r="D1338" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1338" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1338" s="4">
+        <v>30</v>
+      </c>
+      <c r="G1338" s="4">
+        <v>30</v>
+      </c>
+      <c r="H1338" s="5">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
